--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="24915" windowHeight="12090"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="18195" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,171 +16,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
-  <si>
-    <t>(a + b) + (a - b)</t>
-  </si>
-  <si>
-    <t>2a</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>1)</t>
   </si>
   <si>
+    <t>(a + a) + (b+b)</t>
+  </si>
+  <si>
+    <t>2a + 2b</t>
+  </si>
+  <si>
     <t>2)</t>
   </si>
   <si>
-    <t>(a + b) + (b - a)</t>
-  </si>
-  <si>
-    <t>2b</t>
+    <t>(a + a) + (m + m) + p</t>
+  </si>
+  <si>
+    <t>2a + 2m + p</t>
   </si>
   <si>
     <t>3)</t>
   </si>
   <si>
-    <t>(a - b) + (a + b)</t>
+    <t>x + x + x + x</t>
+  </si>
+  <si>
+    <t>4x</t>
   </si>
   <si>
     <t>4)</t>
   </si>
   <si>
-    <t>(a - b) - (a + b)</t>
-  </si>
-  <si>
-    <t>a + b + a - b</t>
-  </si>
-  <si>
-    <t>a + a + b - b</t>
-  </si>
-  <si>
-    <t>a + b + b - a</t>
-  </si>
-  <si>
-    <t>a - a  + b + b</t>
-  </si>
-  <si>
-    <t>a - b + a + b</t>
-  </si>
-  <si>
-    <t>a + a + (-b) + b</t>
-  </si>
-  <si>
-    <t>a - b - a - b</t>
-  </si>
-  <si>
-    <t>a - a - b - b</t>
+    <t>(a + a + a + a) + (b + b)</t>
+  </si>
+  <si>
+    <t>4a + 2b</t>
   </si>
   <si>
     <t>5)</t>
   </si>
   <si>
-    <t>2a - (2a - 3b) - b</t>
-  </si>
-  <si>
-    <t>2a - 2a + 3b - b</t>
+    <t>(2c + 2c + c) + m</t>
+  </si>
+  <si>
+    <t>5c + m</t>
   </si>
   <si>
     <t>6)</t>
   </si>
   <si>
-    <t>3x + 2y - [x - (x - y)]</t>
-  </si>
-  <si>
-    <t>3x + 2y - [x - x + y]</t>
-  </si>
-  <si>
-    <t>3x + 2y - x + x - y</t>
-  </si>
-  <si>
-    <t>3x - x + x + 2y - y</t>
-  </si>
-  <si>
-    <t>3x + y</t>
+    <t>(2m + 2m + 4m + m)</t>
+  </si>
+  <si>
+    <t>9m</t>
   </si>
   <si>
     <t>7)</t>
   </si>
   <si>
-    <t>2m - 3n - [-2m + n - (m - n)]</t>
-  </si>
-  <si>
-    <t>2m - 3n + 2m - n + m - n</t>
-  </si>
-  <si>
-    <t>2m - 3n - [-2m + n - m + n]</t>
-  </si>
-  <si>
-    <t>2m + 2m + m - 3n - n - n</t>
-  </si>
-  <si>
-    <t>5m - 5n</t>
+    <t>(1/2m + m + r + r + 2s)</t>
+  </si>
+  <si>
+    <t>3m/2 + 2r + 2s</t>
   </si>
   <si>
     <t>8)</t>
   </si>
   <si>
-    <t>-(a + b - c) - (-a -b + c) + (a - b + c)</t>
-  </si>
-  <si>
-    <t>-a - b + c + a + b - c + a - b + c</t>
-  </si>
-  <si>
-    <t>-a + a + a - b + b - b + c - c + c</t>
-  </si>
-  <si>
-    <t>a - b + c</t>
+    <t>(3t + 5t + 4t)</t>
+  </si>
+  <si>
+    <t>12t</t>
   </si>
   <si>
     <t>9)</t>
   </si>
   <si>
-    <t>[-(x^2 - y^2) + 2x^3 - 3y^2 - (x^2 - 2x^2 - 3y^2)]</t>
-  </si>
-  <si>
-    <t>[-x^2 + y^2 + 2x^3 - 3y^2 - (-x^2 - 3y^2)]</t>
-  </si>
-  <si>
-    <t>[-x^2 + y^2 + 2x^3 - 3y^2 + x^2 + 3y^2]</t>
-  </si>
-  <si>
-    <t>2x^3 - x^2 + x^2 + 3y^2 - 3y^2 + y^2</t>
-  </si>
-  <si>
-    <t>2x^3 + y^2</t>
+    <t>(2y + y + y) + m</t>
+  </si>
+  <si>
+    <t>4y + m</t>
   </si>
   <si>
     <t>10)</t>
   </si>
   <si>
-    <t>"- [ -(a - 2b) - (a + 2b) - (-a - 3b)]"</t>
-  </si>
-  <si>
-    <t>"-[ -a + 2b - a - 2b + a + 3b]"</t>
-  </si>
-  <si>
-    <t>a - 2b + a + 2b - a - 3b</t>
-  </si>
-  <si>
-    <t>a + a - a - 2b + 2b - 3b</t>
-  </si>
-  <si>
-    <t>a - 3b</t>
+    <t>(x + x + x + x + x + x + x + x + x) + (y + y + y)</t>
+  </si>
+  <si>
+    <t>9x + 3y</t>
   </si>
   <si>
     <t>11)</t>
   </si>
   <si>
-    <t>3x + 2y - {2x - [3x - (2y - 3x) -2x] -y }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3x + 2y - {2x - [3x - 2y + 3x - 2x] -y} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3x + 2y - 2x - 3x + 2y - 3x + 2x - y </t>
-  </si>
-  <si>
-    <t>3x + 3y</t>
+    <t>(x+x+x+x+1.5x+1.5x+1.5x+1.5x)+(y+y+0.5y+0.5y)</t>
+  </si>
+  <si>
+    <t>10x + 3y</t>
+  </si>
+  <si>
+    <t>36 -</t>
   </si>
 </sst>
 </file>
@@ -512,220 +449,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F13"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B16" sqref="B16:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D13" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
